--- a/BackTest/2020-01-22 BackTest ICX.xlsx
+++ b/BackTest/2020-01-22 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>12575.1695</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>15333.4842</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +523,21 @@
         <v>20210.7295</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>178.1</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +564,17 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +601,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +638,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +675,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +712,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +747,19 @@
         <v>654.7265999999993</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +784,19 @@
         <v>10724.9764</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +823,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +860,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +897,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +932,17 @@
         <v>7526.802599999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +967,15 @@
         <v>7526.802599999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1000,15 @@
         <v>7526.802599999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1035,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1068,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1101,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1134,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1165,15 @@
         <v>10768.5481</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1198,15 @@
         <v>10768.5481</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1231,15 @@
         <v>10768.5481</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1264,15 @@
         <v>10762.3141</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1297,15 @@
         <v>10922.5765</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1330,15 @@
         <v>15245.7034</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1365,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1398,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1431,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1464,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1497,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1530,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1563,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1596,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1627,15 @@
         <v>-5968.265600000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1662,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1695,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1728,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1761,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1794,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1827,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1860,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1893,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1926,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1959,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1992,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2025,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2058,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2091,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2124,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2157,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2190,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2223,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2256,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2289,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2322,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2355,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2388,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2421,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2452,15 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2485,15 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2518,15 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,22 +2553,13 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>176.9</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2730,22 +2584,15 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2772,22 +2619,13 @@
       <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>176.9</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,20 +2652,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2852,24 +2683,15 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>176.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2896,20 +2718,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2936,20 +2751,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2976,20 +2784,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3016,20 +2817,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3054,22 +2848,15 @@
         <v>-2889.274500000004</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3094,22 +2881,15 @@
         <v>-2889.274500000004</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3134,22 +2914,15 @@
         <v>-8548.586700000003</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3176,22 +2949,13 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>176.7</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3216,22 +2980,15 @@
         <v>-14613.9688</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3256,24 +3013,15 @@
         <v>-14613.9688</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>177.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3298,24 +3046,15 @@
         <v>-14633.9689</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>177.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3340,24 +3079,15 @@
         <v>-12772.4836</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>176.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3384,22 +3114,13 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>177.5</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3426,20 +3147,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3464,24 +3178,15 @@
         <v>-9840.471868883878</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>177.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3506,24 +3211,15 @@
         <v>-11474.84416888388</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>177.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3548,24 +3244,15 @@
         <v>-11161.74556888388</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>176.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3590,24 +3277,15 @@
         <v>-11161.74556888388</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>177.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3632,24 +3310,15 @@
         <v>-10066.41956888388</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>177.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3674,24 +3343,15 @@
         <v>-9066.419568883881</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>177.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3716,24 +3376,15 @@
         <v>-8066.419568883881</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>177.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3758,24 +3409,15 @@
         <v>-7792.452768883881</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>177.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3800,24 +3442,15 @@
         <v>-7792.452768883881</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>177.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3842,24 +3475,15 @@
         <v>-5782.452768883881</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>177.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3884,24 +3508,15 @@
         <v>-5610.651268883881</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>178.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3926,24 +3541,15 @@
         <v>2970.886331116119</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>178.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3968,24 +3574,15 @@
         <v>2963.886331116119</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>178.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4010,24 +3607,15 @@
         <v>3121.368231116118</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>178.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4052,24 +3640,15 @@
         <v>3320.838031116118</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>179.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4096,20 +3675,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4134,22 +3706,15 @@
         <v>2071.376131116118</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4174,24 +3739,15 @@
         <v>13171.71423111612</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>178.9</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4216,24 +3772,15 @@
         <v>16327.44953111612</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>180</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4258,24 +3805,15 @@
         <v>16327.44953111612</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>180.6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4300,22 +3838,15 @@
         <v>16190.20613111612</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4340,22 +3871,15 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4382,20 +3906,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4422,20 +3939,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4462,20 +3972,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4502,20 +4005,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4540,24 +4036,15 @@
         <v>8734.023331116119</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>179.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4582,24 +4069,15 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4624,24 +4102,15 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>179.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4666,24 +4135,15 @@
         <v>12606.44393111612</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>179.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4708,24 +4168,15 @@
         <v>19426.40993111612</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>178.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4750,24 +4201,15 @@
         <v>17492.48333111612</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>179.7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4792,24 +4234,15 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>178.2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4834,22 +4267,15 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4874,22 +4300,15 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4914,22 +4333,15 @@
         <v>26959.56323111612</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4954,24 +4366,17 @@
         <v>28959.56323111612</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ICX.xlsx
+++ b/BackTest/2020-01-22 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12575.1695</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>15333.4842</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>20210.7295</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>178.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -566,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,15 +715,11 @@
         <v>654.7265999999993</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -784,15 +748,11 @@
         <v>10724.9764</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -862,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -899,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -932,16 +880,14 @@
         <v>7526.802599999999</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -967,7 +913,7 @@
         <v>7526.802599999999</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1000,7 +946,7 @@
         <v>7526.802599999999</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1165,7 +1111,7 @@
         <v>10768.5481</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1198,7 +1144,7 @@
         <v>10768.5481</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1231,7 +1177,7 @@
         <v>10768.5481</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1264,7 +1210,7 @@
         <v>10762.3141</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1297,7 +1243,7 @@
         <v>10922.5765</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1330,7 +1276,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1363,7 +1309,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1396,7 +1342,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1429,7 +1375,7 @@
         <v>-1757.296600000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1462,7 +1408,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1495,7 +1441,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1528,7 +1474,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1561,7 +1507,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1594,7 +1540,7 @@
         <v>-4153.339300000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1627,7 +1573,7 @@
         <v>-5968.265600000002</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1660,7 +1606,7 @@
         <v>-6068.254100000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1693,7 +1639,7 @@
         <v>-6552.182000000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1726,7 +1672,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1759,7 +1705,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1792,7 +1738,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1825,7 +1771,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1858,7 +1804,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1891,7 +1837,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1924,7 +1870,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1957,7 +1903,7 @@
         <v>20446.4991</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1990,7 +1936,7 @@
         <v>21988.4991</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2023,7 +1969,7 @@
         <v>7200.347299999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2056,7 +2002,7 @@
         <v>9570.347299999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2089,7 +2035,7 @@
         <v>9570.347299999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2122,7 +2068,7 @@
         <v>9570.347299999998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2155,7 +2101,7 @@
         <v>6017.427899999997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2188,7 +2134,7 @@
         <v>6240.427799999997</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2221,7 +2167,7 @@
         <v>14486.9682</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2254,7 +2200,7 @@
         <v>14486.9682</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2287,7 +2233,7 @@
         <v>7181.968299999996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2320,7 +2266,7 @@
         <v>7767.491999999996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2353,7 +2299,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2386,7 +2332,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2419,7 +2365,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2452,7 +2398,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2485,7 +2431,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2518,7 +2464,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2551,7 +2497,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2584,7 +2530,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2617,7 +2563,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2650,7 +2596,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2683,7 +2629,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2716,7 +2662,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2749,7 +2695,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2782,7 +2728,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2815,7 +2761,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2848,7 +2794,7 @@
         <v>-2889.274500000004</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2881,7 +2827,7 @@
         <v>-2889.274500000004</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2914,7 +2860,7 @@
         <v>-8548.586700000003</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2947,7 +2893,7 @@
         <v>-8521.022400000003</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2980,7 +2926,7 @@
         <v>-14613.9688</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3013,7 +2959,7 @@
         <v>-14613.9688</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3046,7 +2992,7 @@
         <v>-14633.9689</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3112,7 +3058,7 @@
         <v>-12851.19836888388</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3178,7 +3124,7 @@
         <v>-9840.471868883878</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3211,7 +3157,7 @@
         <v>-11474.84416888388</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3706,7 +3652,7 @@
         <v>2071.376131116118</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3739,7 +3685,7 @@
         <v>13171.71423111612</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3772,7 +3718,7 @@
         <v>16327.44953111612</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3805,7 +3751,7 @@
         <v>16327.44953111612</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3838,7 +3784,7 @@
         <v>16190.20613111612</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3871,7 +3817,7 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3904,7 +3850,7 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3937,7 +3883,7 @@
         <v>18936.57483111612</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3970,7 +3916,7 @@
         <v>9681.84683111612</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4003,7 +3949,7 @@
         <v>8742.621031116119</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4036,7 +3982,7 @@
         <v>8734.023331116119</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4069,7 +4015,7 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4102,7 +4048,7 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4135,7 +4081,7 @@
         <v>12606.44393111612</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4168,7 +4114,7 @@
         <v>19426.40993111612</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4201,7 +4147,7 @@
         <v>17492.48333111612</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4234,7 +4180,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4267,7 +4213,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4300,7 +4246,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4333,7 +4279,7 @@
         <v>26959.56323111612</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4366,7 +4312,7 @@
         <v>28959.56323111612</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4377,6 +4323,6 @@
       <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ICX.xlsx
+++ b/BackTest/2020-01-22 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12575.1695</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>20210.7295</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1757.296600000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-4153.339300000001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5968.265600000002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6068.254100000002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6552.182000000002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>21032.8028</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>20446.4991</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>21988.4991</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7200.347299999998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>9570.347299999998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>9570.347299999998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>9570.347299999998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6017.427899999997</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6240.427799999997</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>14486.9682</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14486.9682</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>7181.968299999996</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>7767.491999999996</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2989.274500000004</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2889.274500000004</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2889.274500000004</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8548.586700000003</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-8521.022400000003</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-14613.9688</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9840.471868883878</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,11 +3157,17 @@
         <v>-11474.84416888388</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>177.5</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3196,17 @@
         <v>-11161.74556888388</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>176.4</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3239,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3276,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3313,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3350,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3387,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3424,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3461,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3498,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3535,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3572,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3609,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3646,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3683,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3720,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3757,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3794,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3831,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3868,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3901,15 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3938,15 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3975,15 @@
         <v>18936.57483111612</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4012,15 @@
         <v>9681.84683111612</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4049,15 @@
         <v>8742.621031116119</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4086,15 @@
         <v>8734.023331116119</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4123,15 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4160,15 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4197,15 @@
         <v>12606.44393111612</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4234,15 @@
         <v>19426.40993111612</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4271,15 @@
         <v>17492.48333111612</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4308,15 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4345,15 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4382,15 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4419,15 @@
         <v>26959.56323111612</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,17 +4456,21 @@
         <v>28959.56323111612</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
       <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ICX.xlsx
+++ b/BackTest/2020-01-22 BackTest ICX.xlsx
@@ -451,7 +451,7 @@
         <v>12575.1695</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>20210.7295</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>10768.5481</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>10762.3141</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-14613.9688</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-14633.9689</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3157,537 +3157,529 @@
         <v>-11474.84416888388</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>177.5</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+      <c r="C85" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>313.0986</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-11161.74556888388</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>16.90140845070422</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-11161.74556888388</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1095.326</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-10066.41956888388</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-9066.419568883881</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C89" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-8066.419568883881</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="C90" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>273.9668</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-7792.452768883881</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>763.2289</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-7792.452768883881</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>178</v>
+      </c>
+      <c r="C92" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>178</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-5782.452768883881</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>171.8015</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-5610.651268883881</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8581.5376</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2970.886331116119</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2963.886331116119</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>157.4819</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3121.368231116118</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>199.4698</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3320.838031116118</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="C98" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10707.6064</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3320.838031116118</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="E85" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="F85" t="n">
-        <v>313.0986</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-11161.74556888388</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>176.4</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="C86" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="D86" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="E86" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="F86" t="n">
-        <v>16.90140845070422</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-11161.74556888388</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>177.6</v>
-      </c>
-      <c r="C87" t="n">
-        <v>177.6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>177.6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>177.6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1095.326</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-10066.41956888388</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-9066.419568883881</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="D89" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="E89" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-8066.419568883881</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="C90" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="D90" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="E90" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="F90" t="n">
-        <v>273.9668</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-7792.452768883881</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="C91" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="D91" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="F91" t="n">
-        <v>763.2289</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-7792.452768883881</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>178</v>
-      </c>
-      <c r="C92" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>178</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-5782.452768883881</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="E93" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="F93" t="n">
-        <v>171.8015</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-5610.651268883881</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>178.8</v>
-      </c>
-      <c r="D94" t="n">
-        <v>178.8</v>
-      </c>
-      <c r="E94" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>8581.5376</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2970.886331116119</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="E95" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="F95" t="n">
-        <v>7</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2963.886331116119</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>157.4819</v>
-      </c>
-      <c r="G96" t="n">
-        <v>3121.368231116118</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="C97" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="D97" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="E97" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="F97" t="n">
-        <v>199.4698</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3320.838031116118</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>179.7</v>
-      </c>
-      <c r="C98" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="D98" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="E98" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>10707.6064</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3320.838031116118</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3716,10 +3708,14 @@
         <v>2071.376131116118</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,10 +3749,14 @@
         <v>13171.71423111612</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,10 +3790,12 @@
         <v>16327.44953111612</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3827,10 +3829,12 @@
         <v>16327.44953111612</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,10 +3868,12 @@
         <v>16190.20613111612</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,10 +3907,12 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3938,10 +3946,12 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3975,10 +3985,12 @@
         <v>18936.57483111612</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,10 +4024,12 @@
         <v>9681.84683111612</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,10 +4063,12 @@
         <v>8742.621031116119</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4086,17 +4102,19 @@
         <v>8734.023331116119</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>178.2</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0.9994893378226711</v>
       </c>
       <c r="M109" t="inlineStr"/>
     </row>
@@ -4123,15 +4141,15 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>179</v>
+      </c>
+      <c r="J110" t="n">
+        <v>179</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4160,13 +4178,17 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>179</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4197,13 +4219,15 @@
         <v>12606.44393111612</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>179</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4234,13 +4258,17 @@
         <v>19426.40993111612</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="J113" t="n">
+        <v>179</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4271,10 +4299,12 @@
         <v>17492.48333111612</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>179</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,10 +4338,14 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>179</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,10 +4379,12 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>179</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,10 +4418,12 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>179</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,10 +4457,12 @@
         <v>26959.56323111612</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>179</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4456,10 +4496,12 @@
         <v>28959.56323111612</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>179</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-22 BackTest ICX.xlsx
+++ b/BackTest/2020-01-22 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>172.5405</v>
       </c>
       <c r="G2" t="n">
-        <v>12575.1695</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2758.3147</v>
       </c>
       <c r="G3" t="n">
-        <v>15333.4842</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>4877.2453</v>
       </c>
       <c r="G4" t="n">
-        <v>20210.7295</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>746.0217</v>
       </c>
       <c r="G5" t="n">
-        <v>20956.7512</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1589.9802</v>
       </c>
       <c r="G6" t="n">
-        <v>20956.7512</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>15960.1291</v>
       </c>
       <c r="G7" t="n">
-        <v>4996.622099999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2358.1288</v>
       </c>
       <c r="G8" t="n">
-        <v>7354.750899999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6739.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>614.7509999999993</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>39.9756</v>
       </c>
       <c r="G10" t="n">
-        <v>654.7265999999993</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>10070.2498</v>
       </c>
       <c r="G11" t="n">
-        <v>10724.9764</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>125</v>
       </c>
       <c r="G12" t="n">
-        <v>10599.9764</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3727.1998</v>
       </c>
       <c r="G13" t="n">
-        <v>6872.776599999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>654.026</v>
       </c>
       <c r="G14" t="n">
-        <v>7526.802599999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>657.317</v>
       </c>
       <c r="G15" t="n">
-        <v>7526.802599999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>431.0591</v>
       </c>
       <c r="G16" t="n">
-        <v>7526.802599999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>250</v>
       </c>
       <c r="G17" t="n">
-        <v>7526.802599999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>393.0977</v>
       </c>
       <c r="G18" t="n">
-        <v>7526.802599999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3241.7455</v>
       </c>
       <c r="G19" t="n">
-        <v>10768.5481</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>12572.1993</v>
       </c>
       <c r="G20" t="n">
-        <v>10768.5481</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>125</v>
       </c>
       <c r="G21" t="n">
-        <v>10768.5481</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>510.3531</v>
       </c>
       <c r="G22" t="n">
-        <v>10768.5481</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2731.6494</v>
       </c>
       <c r="G23" t="n">
-        <v>10768.5481</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>970.9894</v>
       </c>
       <c r="G24" t="n">
-        <v>10768.5481</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>6.234</v>
       </c>
       <c r="G25" t="n">
-        <v>10762.3141</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>160.2624</v>
       </c>
       <c r="G26" t="n">
-        <v>10922.5765</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4323.1269</v>
       </c>
       <c r="G27" t="n">
-        <v>15245.7034</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3828.1482</v>
       </c>
       <c r="G28" t="n">
-        <v>15245.7034</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1704.3376</v>
       </c>
       <c r="G29" t="n">
-        <v>15245.7034</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>17003</v>
       </c>
       <c r="G30" t="n">
-        <v>-1757.296600000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2.8</v>
       </c>
       <c r="G31" t="n">
-        <v>-1754.496600000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>300</v>
       </c>
       <c r="G32" t="n">
-        <v>-1754.496600000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2775.5367</v>
       </c>
       <c r="G33" t="n">
-        <v>-1754.496600000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2398.8427</v>
       </c>
       <c r="G34" t="n">
-        <v>-1754.496600000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2398.8427</v>
       </c>
       <c r="G35" t="n">
-        <v>-4153.339300000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1814.9263</v>
       </c>
       <c r="G36" t="n">
-        <v>-5968.265600000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>99.9885</v>
       </c>
       <c r="G37" t="n">
-        <v>-6068.254100000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>483.9279</v>
       </c>
       <c r="G38" t="n">
-        <v>-6552.182000000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>27584.9848</v>
       </c>
       <c r="G39" t="n">
-        <v>21032.8028</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2260</v>
       </c>
       <c r="G40" t="n">
-        <v>21032.8028</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>12200</v>
       </c>
       <c r="G41" t="n">
-        <v>21032.8028</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1101.3804</v>
       </c>
       <c r="G42" t="n">
-        <v>21032.8028</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2533.7601</v>
       </c>
       <c r="G43" t="n">
-        <v>21032.8028</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>517.1550999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>21032.8028</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>395.1185</v>
       </c>
       <c r="G45" t="n">
-        <v>21032.8028</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>586.3037</v>
       </c>
       <c r="G46" t="n">
-        <v>20446.4991</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,21 @@
         <v>1542</v>
       </c>
       <c r="G47" t="n">
-        <v>21988.4991</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1829,21 @@
         <v>14788.1518</v>
       </c>
       <c r="G48" t="n">
-        <v>7200.347299999998</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1865,21 @@
         <v>2370</v>
       </c>
       <c r="G49" t="n">
-        <v>9570.347299999998</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>174.9</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1901,21 @@
         <v>3010</v>
       </c>
       <c r="G50" t="n">
-        <v>9570.347299999998</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1937,21 @@
         <v>3943.7629</v>
       </c>
       <c r="G51" t="n">
-        <v>9570.347299999998</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1973,21 @@
         <v>3552.9194</v>
       </c>
       <c r="G52" t="n">
-        <v>6017.427899999997</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2009,21 @@
         <v>222.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>6240.427799999997</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>176.6</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2045,21 @@
         <v>8246.5404</v>
       </c>
       <c r="G54" t="n">
-        <v>14486.9682</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2081,19 @@
         <v>744.8387</v>
       </c>
       <c r="G55" t="n">
-        <v>14486.9682</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2115,19 @@
         <v>7304.9999</v>
       </c>
       <c r="G56" t="n">
-        <v>7181.968299999996</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2149,19 @@
         <v>585.5237</v>
       </c>
       <c r="G57" t="n">
-        <v>7767.491999999996</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2183,19 @@
         <v>10756.7665</v>
       </c>
       <c r="G58" t="n">
-        <v>-2989.274500000004</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2217,21 @@
         <v>1346.0579</v>
       </c>
       <c r="G59" t="n">
-        <v>-2989.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2253,21 @@
         <v>2716.464</v>
       </c>
       <c r="G60" t="n">
-        <v>-2989.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2289,19 @@
         <v>2308.3192</v>
       </c>
       <c r="G61" t="n">
-        <v>-2989.274500000004</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2323,19 @@
         <v>886.1606</v>
       </c>
       <c r="G62" t="n">
-        <v>-2989.274500000004</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2357,19 @@
         <v>446.2494</v>
       </c>
       <c r="G63" t="n">
-        <v>-2989.274500000004</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2391,19 @@
         <v>1538.8955</v>
       </c>
       <c r="G64" t="n">
-        <v>-2989.274500000004</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2425,19 @@
         <v>1779.3481</v>
       </c>
       <c r="G65" t="n">
-        <v>-2989.274500000004</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2459,19 @@
         <v>2373.4469</v>
       </c>
       <c r="G66" t="n">
-        <v>-2989.274500000004</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2493,19 @@
         <v>1926.7741</v>
       </c>
       <c r="G67" t="n">
-        <v>-2989.274500000004</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2527,21 @@
         <v>1302.4882</v>
       </c>
       <c r="G68" t="n">
-        <v>-2989.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2563,21 @@
         <v>546.4651</v>
       </c>
       <c r="G69" t="n">
-        <v>-2989.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2599,21 @@
         <v>1839.2707</v>
       </c>
       <c r="G70" t="n">
-        <v>-2989.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2635,21 @@
         <v>1536.0946</v>
       </c>
       <c r="G71" t="n">
-        <v>-2989.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2671,21 @@
         <v>1646.1967</v>
       </c>
       <c r="G72" t="n">
-        <v>-2989.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2707,21 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>-2889.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>176.9</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2743,21 @@
         <v>281.6901408450704</v>
       </c>
       <c r="G74" t="n">
-        <v>-2889.274500000004</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2779,21 @@
         <v>5659.3122</v>
       </c>
       <c r="G75" t="n">
-        <v>-8548.586700000003</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2815,21 @@
         <v>27.5643</v>
       </c>
       <c r="G76" t="n">
-        <v>-8521.022400000003</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2851,21 @@
         <v>6092.9464</v>
       </c>
       <c r="G77" t="n">
-        <v>-14613.9688</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2887,21 @@
         <v>700</v>
       </c>
       <c r="G78" t="n">
-        <v>-14613.9688</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>177.4</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2923,21 @@
         <v>20.0001</v>
       </c>
       <c r="G79" t="n">
-        <v>-14633.9689</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>177.4</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2959,21 @@
         <v>1861.4853</v>
       </c>
       <c r="G80" t="n">
-        <v>-12772.4836</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2995,21 @@
         <v>78.71476888387824</v>
       </c>
       <c r="G81" t="n">
-        <v>-12851.19836888388</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3031,21 @@
         <v>3010.7265</v>
       </c>
       <c r="G82" t="n">
-        <v>-9840.471868883878</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>177.4</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3067,21 @@
         <v>451.9348</v>
       </c>
       <c r="G83" t="n">
-        <v>-9840.471868883878</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3103,21 @@
         <v>1634.3723</v>
       </c>
       <c r="G84" t="n">
-        <v>-11474.84416888388</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3139,21 @@
         <v>313.0986</v>
       </c>
       <c r="G85" t="n">
-        <v>-11161.74556888388</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3175,21 @@
         <v>16.90140845070422</v>
       </c>
       <c r="G86" t="n">
-        <v>-11161.74556888388</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3211,21 @@
         <v>1095.326</v>
       </c>
       <c r="G87" t="n">
-        <v>-10066.41956888388</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3247,21 @@
         <v>1000</v>
       </c>
       <c r="G88" t="n">
-        <v>-9066.419568883881</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>177.6</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3283,21 @@
         <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>-8066.419568883881</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>177.7</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,22 +3319,21 @@
         <v>273.9668</v>
       </c>
       <c r="G90" t="n">
-        <v>-7792.452768883881</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
         <v>177.8</v>
       </c>
-      <c r="J90" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3389,24 +3355,21 @@
         <v>763.2289</v>
       </c>
       <c r="G91" t="n">
-        <v>-7792.452768883881</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>177.9</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3428,26 +3391,21 @@
         <v>2010</v>
       </c>
       <c r="G92" t="n">
-        <v>-5782.452768883881</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
         <v>177.9</v>
       </c>
-      <c r="J92" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3469,22 +3427,21 @@
         <v>171.8015</v>
       </c>
       <c r="G93" t="n">
-        <v>-5610.651268883881</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
         <v>178.1</v>
       </c>
-      <c r="J93" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3506,26 +3463,21 @@
         <v>8581.5376</v>
       </c>
       <c r="G94" t="n">
-        <v>2970.886331116119</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
         <v>178.2</v>
       </c>
-      <c r="J94" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3547,26 +3499,19 @@
         <v>7</v>
       </c>
       <c r="G95" t="n">
-        <v>2963.886331116119</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>178.8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3588,22 +3533,19 @@
         <v>157.4819</v>
       </c>
       <c r="G96" t="n">
-        <v>3121.368231116118</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="J96" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3625,26 +3567,19 @@
         <v>199.4698</v>
       </c>
       <c r="G97" t="n">
-        <v>3320.838031116118</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3666,24 +3601,19 @@
         <v>10707.6064</v>
       </c>
       <c r="G98" t="n">
-        <v>3320.838031116118</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3705,26 +3635,19 @@
         <v>1249.4619</v>
       </c>
       <c r="G99" t="n">
-        <v>2071.376131116118</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3746,26 +3669,19 @@
         <v>11100.3381</v>
       </c>
       <c r="G100" t="n">
-        <v>13171.71423111612</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3787,24 +3703,19 @@
         <v>3155.7353</v>
       </c>
       <c r="G101" t="n">
-        <v>16327.44953111612</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3826,24 +3737,17 @@
         <v>1273.8999</v>
       </c>
       <c r="G102" t="n">
-        <v>16327.44953111612</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3865,24 +3769,15 @@
         <v>137.2434</v>
       </c>
       <c r="G103" t="n">
-        <v>16190.20613111612</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3904,24 +3799,15 @@
         <v>24.4819</v>
       </c>
       <c r="G104" t="n">
-        <v>16165.72423111612</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3943,24 +3829,15 @@
         <v>134.6049</v>
       </c>
       <c r="G105" t="n">
-        <v>16165.72423111612</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3982,24 +3859,15 @@
         <v>2770.8506</v>
       </c>
       <c r="G106" t="n">
-        <v>18936.57483111612</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4021,24 +3889,15 @@
         <v>9254.727999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>9681.84683111612</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4060,24 +3919,15 @@
         <v>939.2258</v>
       </c>
       <c r="G108" t="n">
-        <v>8742.621031116119</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4099,24 +3949,15 @@
         <v>8.5977</v>
       </c>
       <c r="G109" t="n">
-        <v>8734.023331116119</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>0.9994893378226711</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4138,22 +3979,15 @@
         <v>5565.735</v>
       </c>
       <c r="G110" t="n">
-        <v>14299.75833111612</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>179</v>
-      </c>
-      <c r="J110" t="n">
-        <v>179</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4175,26 +4009,15 @@
         <v>5548.5395</v>
       </c>
       <c r="G111" t="n">
-        <v>14299.75833111612</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>179</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4216,24 +4039,15 @@
         <v>1693.3144</v>
       </c>
       <c r="G112" t="n">
-        <v>12606.44393111612</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>179</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4255,26 +4069,15 @@
         <v>6819.966</v>
       </c>
       <c r="G113" t="n">
-        <v>19426.40993111612</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>179</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4296,24 +4099,15 @@
         <v>1933.9266</v>
       </c>
       <c r="G114" t="n">
-        <v>17492.48333111612</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>179</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4335,26 +4129,15 @@
         <v>8480.08</v>
       </c>
       <c r="G115" t="n">
-        <v>25972.56333111612</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>179</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4376,24 +4159,15 @@
         <v>2000</v>
       </c>
       <c r="G116" t="n">
-        <v>25972.56333111612</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>179</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4415,24 +4189,15 @@
         <v>175.1872</v>
       </c>
       <c r="G117" t="n">
-        <v>25972.56333111612</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>179</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4454,24 +4219,15 @@
         <v>986.9999</v>
       </c>
       <c r="G118" t="n">
-        <v>26959.56323111612</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>179</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4493,24 +4249,15 @@
         <v>2000</v>
       </c>
       <c r="G119" t="n">
-        <v>28959.56323111612</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>179</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
